--- a/data/MetalliCan/pre_cleaned_data/material_df.xlsx
+++ b/data/MetalliCan/pre_cleaned_data/material_df.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca-my.sharepoint.com/personal/marin_pellan_polymtl_ca/Documents/POST_DOC/CODE/regionalized_lci_mineral/data/MetalliCan/pre_cleaned_data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_23F921EDA0E30D32332C4C26755326866B8A70B1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1990809-2A0E-4E9C-A121-C5E740B40A05}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="145">
   <si>
     <t>technosphere_id</t>
   </si>
@@ -67,9 +61,18 @@
     <t>needs_density</t>
   </si>
   <si>
+    <t>TECH-b86f7d07-2023-4</t>
+  </si>
+  <si>
+    <t>TECH-cb85213a-2023-2</t>
+  </si>
+  <si>
     <t>TECH-6dc537e6-2023-2</t>
   </si>
   <si>
+    <t>TECH-6dc537e6-2023-5</t>
+  </si>
+  <si>
     <t>TECH-6dc537e6-2023-6</t>
   </si>
   <si>
@@ -94,9 +97,18 @@
     <t>TECH-687b8c8d-2023-7</t>
   </si>
   <si>
+    <t>TECH-44857446-2023-4</t>
+  </si>
+  <si>
+    <t>TECH-9de9bb0d-2023-2</t>
+  </si>
+  <si>
     <t>TECH-fefeaee4-2023-3</t>
   </si>
   <si>
+    <t>TECH-fefeaee4-2023-6</t>
+  </si>
+  <si>
     <t>TECH-fefeaee4-2023-7</t>
   </si>
   <si>
@@ -136,6 +148,9 @@
     <t>TECH-GRP-0d911886-2023-2</t>
   </si>
   <si>
+    <t>TECH-GRP-0d911886-2023-6</t>
+  </si>
+  <si>
     <t>TECH-GRP-0d911886-2023-7</t>
   </si>
   <si>
@@ -193,6 +208,9 @@
     <t>TECH-02884fb5-2023-7</t>
   </si>
   <si>
+    <t>TECH-02884fb5-2023-10</t>
+  </si>
+  <si>
     <t>TECH-02884fb5-2023-11</t>
   </si>
   <si>
@@ -214,15 +232,27 @@
     <t>TECH-02884fb5-2023-20</t>
   </si>
   <si>
+    <t>TECH-7607a50e-2023-7</t>
+  </si>
+  <si>
     <t>TECH-7607a50e-2023-8</t>
   </si>
   <si>
     <t>Material use</t>
   </si>
   <si>
+    <t>Surface/underground emulsion &amp; ANFO</t>
+  </si>
+  <si>
+    <t>Explosives</t>
+  </si>
+  <si>
     <t>Cement</t>
   </si>
   <si>
+    <t>Grinding media</t>
+  </si>
+  <si>
     <t>Lime</t>
   </si>
   <si>
@@ -301,6 +331,9 @@
     <t>Transmission oil</t>
   </si>
   <si>
+    <t>pounds</t>
+  </si>
+  <si>
     <t>t</t>
   </si>
   <si>
@@ -313,12 +346,27 @@
     <t>kg</t>
   </si>
   <si>
+    <t>Explosives, treated as material input because in t</t>
+  </si>
+  <si>
+    <t>QC-MAIN-b86f7d07</t>
+  </si>
+  <si>
+    <t>ON-MAIN-cb85213a</t>
+  </si>
+  <si>
     <t>QC-MAIN-6dc537e6</t>
   </si>
   <si>
     <t>ON-MAIN-687b8c8d</t>
   </si>
   <si>
+    <t>YT-MAIN-44857446</t>
+  </si>
+  <si>
+    <t>QC-MAIN-9de9bb0d</t>
+  </si>
+  <si>
     <t>ON-MAIN-fefeaee4</t>
   </si>
   <si>
@@ -337,6 +385,12 @@
     <t>GRP-0d911886</t>
   </si>
   <si>
+    <t>CMP-7e360a1f</t>
+  </si>
+  <si>
+    <t>CMP-3d2c4955</t>
+  </si>
+  <si>
     <t>CMP-4a434d72</t>
   </si>
   <si>
@@ -349,6 +403,12 @@
     <t>CMP-3d0a95b7</t>
   </si>
   <si>
+    <t>SRC_HeclaMiningCompany_SR_2023</t>
+  </si>
+  <si>
+    <t>SRC_WesdomeGoldMinesLtd._ESG_data_2023</t>
+  </si>
+  <si>
     <t>SRC_NewmontCorporation_Newmont-2023-Performance-Data-Tables-V4-locked</t>
   </si>
   <si>
@@ -361,22 +421,31 @@
     <t>SRC_IAMGOLDCorporation_2023_iamgold-esg-performance-data-final_protected</t>
   </si>
   <si>
+    <t>lbs→t</t>
+  </si>
+  <si>
     <t>L×density→t</t>
   </si>
   <si>
-    <t>missing_density</t>
-  </si>
-  <si>
     <t>kg→t</t>
   </si>
   <si>
+    <t>lbs×0.453592/1000</t>
+  </si>
+  <si>
     <t>reported in tonnes</t>
   </si>
   <si>
-    <t>kl→L × density kg/L; density=0.88</t>
-  </si>
-  <si>
-    <t>volume reported; no density mapping for this subflow</t>
+    <t>kl×density=0.88 kg/L</t>
+  </si>
+  <si>
+    <t>l×density=1.51 kg/L</t>
+  </si>
+  <si>
+    <t>l×density=1.84 kg/L</t>
+  </si>
+  <si>
+    <t>kl×density=1.19 kg/L</t>
   </si>
   <si>
     <t>kg/1000</t>
@@ -385,8 +454,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,21 +518,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -501,7 +562,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -535,7 +596,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -570,10 +630,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -746,33 +805,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="25.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="70.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="47.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.36328125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -819,7 +859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -827,40 +867,43 @@
         <v>2023</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F2">
-        <v>27374</v>
+        <v>6543598</v>
+      </c>
+      <c r="G2" t="s">
+        <v>110</v>
       </c>
       <c r="H2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="J2" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="K2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="L2">
-        <v>27374</v>
+        <v>2968.123704016</v>
       </c>
       <c r="M2" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="N2" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="O2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -868,40 +911,43 @@
         <v>2023</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F3">
-        <v>2229</v>
+        <v>1211</v>
+      </c>
+      <c r="G3" t="s">
+        <v>110</v>
       </c>
       <c r="H3" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="J3" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="K3" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="L3">
-        <v>2229</v>
+        <v>1211</v>
       </c>
       <c r="M3" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="N3" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="O3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -909,40 +955,40 @@
         <v>2023</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="F4">
-        <v>380.68700000000001</v>
+        <v>27374</v>
       </c>
       <c r="H4" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="J4" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="K4" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="L4">
-        <v>335.00456000000003</v>
+        <v>27374</v>
       </c>
       <c r="M4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="N4" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="O4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -950,37 +996,43 @@
         <v>2023</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F5">
-        <v>26575</v>
+        <v>3039.9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>110</v>
       </c>
       <c r="H5" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="J5" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="K5" t="s">
-        <v>109</v>
+        <v>131</v>
+      </c>
+      <c r="L5">
+        <v>3039.9</v>
       </c>
       <c r="M5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="N5" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="O5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -988,40 +1040,40 @@
         <v>2023</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F6">
-        <v>838.8</v>
+        <v>2229</v>
       </c>
       <c r="H6" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="J6" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="K6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="L6">
-        <v>838.8</v>
+        <v>2229</v>
       </c>
       <c r="M6" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="N6" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="O6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1029,37 +1081,40 @@
         <v>2023</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="F7">
-        <v>73.959999999999994</v>
+        <v>380.687</v>
       </c>
       <c r="H7" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="J7" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="K7" t="s">
-        <v>109</v>
+        <v>131</v>
+      </c>
+      <c r="L7">
+        <v>335.00456</v>
       </c>
       <c r="M7" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="N7" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="O7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1067,40 +1122,40 @@
         <v>2023</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="F8">
-        <v>241.25056699628101</v>
+        <v>26575</v>
       </c>
       <c r="H8" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="K8" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="L8">
-        <v>241.25056699628101</v>
+        <v>40.12825</v>
       </c>
       <c r="M8" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="N8" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="O8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1108,40 +1163,40 @@
         <v>2023</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F9">
-        <v>245</v>
+        <v>838.8</v>
       </c>
       <c r="H9" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="L9">
-        <v>245</v>
+        <v>838.8</v>
       </c>
       <c r="M9" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="N9" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="O9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1149,40 +1204,40 @@
         <v>2023</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="F10">
-        <v>486.3</v>
+        <v>73.95999999999999</v>
       </c>
       <c r="H10" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="L10">
-        <v>486.3</v>
+        <v>0.1360864</v>
       </c>
       <c r="M10" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="N10" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="O10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1190,40 +1245,40 @@
         <v>2023</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F11">
-        <v>9417.6</v>
+        <v>241.250566996281</v>
       </c>
       <c r="H11" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="J11" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="L11">
-        <v>9417.6</v>
+        <v>241.250566996281</v>
       </c>
       <c r="M11" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="N11" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="O11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1231,37 +1286,40 @@
         <v>2023</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="F12">
-        <v>57.2</v>
+        <v>245</v>
       </c>
       <c r="H12" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="J12" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="K12" t="s">
-        <v>109</v>
+        <v>132</v>
+      </c>
+      <c r="L12">
+        <v>245</v>
       </c>
       <c r="M12" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="N12" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="O12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1269,40 +1327,40 @@
         <v>2023</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F13">
-        <v>924.08100000000002</v>
+        <v>486.3</v>
       </c>
       <c r="H13" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="J13" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="K13" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="L13">
-        <v>924.08100000000002</v>
+        <v>486.3</v>
       </c>
       <c r="M13" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="N13" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="O13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1310,40 +1368,43 @@
         <v>2023</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="F14">
-        <v>336.52100000000002</v>
+        <v>511210</v>
+      </c>
+      <c r="G14" t="s">
+        <v>110</v>
       </c>
       <c r="H14" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="J14" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="K14" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="L14">
-        <v>296.13848000000002</v>
+        <v>231.88076632</v>
       </c>
       <c r="M14" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="N14" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="O14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1351,40 +1412,43 @@
         <v>2023</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F15">
-        <v>390.00299999999999</v>
+        <v>506</v>
+      </c>
+      <c r="G15" t="s">
+        <v>110</v>
       </c>
       <c r="H15" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="J15" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="K15" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="L15">
-        <v>390.00299999999999</v>
+        <v>506</v>
       </c>
       <c r="M15" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="N15" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="O15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1392,40 +1456,40 @@
         <v>2023</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F16">
-        <v>100.705343372947</v>
+        <v>9417.6</v>
       </c>
       <c r="H16" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="J16" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="K16" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="L16">
-        <v>100.705343372947</v>
+        <v>9417.6</v>
       </c>
       <c r="M16" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="N16" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="O16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1433,40 +1497,43 @@
         <v>2023</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F17">
-        <v>980</v>
+        <v>726.071</v>
+      </c>
+      <c r="G17" t="s">
+        <v>110</v>
       </c>
       <c r="H17" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="J17" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="K17" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="L17">
-        <v>980</v>
+        <v>726.071</v>
       </c>
       <c r="M17" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="N17" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="O17" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -1474,40 +1541,40 @@
         <v>2023</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="F18">
-        <v>179</v>
+        <v>57.2</v>
       </c>
       <c r="H18" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="J18" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="K18" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="L18">
-        <v>179</v>
+        <v>68.068</v>
       </c>
       <c r="M18" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="N18" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="O18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1515,40 +1582,40 @@
         <v>2023</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F19">
-        <v>38000</v>
+        <v>924.081</v>
       </c>
       <c r="H19" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="J19" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="K19" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="L19">
-        <v>38</v>
+        <v>924.081</v>
       </c>
       <c r="M19" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="N19" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="O19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1556,40 +1623,40 @@
         <v>2023</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="F20">
-        <v>192</v>
+        <v>336.521</v>
       </c>
       <c r="H20" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="J20" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="K20" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="L20">
-        <v>192</v>
+        <v>296.13848</v>
       </c>
       <c r="M20" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="N20" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="O20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1597,40 +1664,40 @@
         <v>2023</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="E21" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F21">
-        <v>2724</v>
+        <v>390.003</v>
       </c>
       <c r="H21" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="J21" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="K21" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="L21">
-        <v>2724</v>
+        <v>390.003</v>
       </c>
       <c r="M21" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="N21" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="O21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -1638,40 +1705,40 @@
         <v>2023</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F22">
-        <v>55</v>
+        <v>100.705343372947</v>
       </c>
       <c r="H22" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="J22" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="K22" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="L22">
-        <v>55</v>
+        <v>100.705343372947</v>
       </c>
       <c r="M22" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="N22" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="O22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1679,40 +1746,40 @@
         <v>2023</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F23">
-        <v>583</v>
+        <v>980</v>
       </c>
       <c r="H23" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="J23" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="K23" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="L23">
-        <v>583</v>
+        <v>980</v>
       </c>
       <c r="M23" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="N23" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="O23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1720,40 +1787,40 @@
         <v>2023</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F24">
-        <v>12578</v>
-      </c>
-      <c r="I24" t="s">
-        <v>104</v>
+        <v>179</v>
+      </c>
+      <c r="H24" t="s">
+        <v>118</v>
       </c>
       <c r="J24" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="K24" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="L24">
-        <v>12578</v>
+        <v>179</v>
       </c>
       <c r="M24" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="N24" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="O24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -1761,37 +1828,40 @@
         <v>2023</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="F25">
-        <v>2.2549999999999999</v>
-      </c>
-      <c r="I25" t="s">
-        <v>104</v>
+        <v>38000</v>
+      </c>
+      <c r="H25" t="s">
+        <v>118</v>
       </c>
       <c r="J25" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="K25" t="s">
-        <v>109</v>
+        <v>133</v>
+      </c>
+      <c r="L25">
+        <v>38</v>
       </c>
       <c r="M25" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="N25" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="O25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -1799,40 +1869,40 @@
         <v>2023</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="E26" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F26">
-        <v>4346.9210000000003</v>
-      </c>
-      <c r="I26" t="s">
-        <v>104</v>
+        <v>192</v>
+      </c>
+      <c r="H26" t="s">
+        <v>118</v>
       </c>
       <c r="J26" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="K26" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="L26">
-        <v>4346.9210000000003</v>
+        <v>192</v>
       </c>
       <c r="M26" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="N26" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="O26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -1840,40 +1910,40 @@
         <v>2023</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E27" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="F27">
-        <v>619.36599999999999</v>
-      </c>
-      <c r="I27" t="s">
-        <v>104</v>
+        <v>2724</v>
+      </c>
+      <c r="H27" t="s">
+        <v>118</v>
       </c>
       <c r="J27" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="K27" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="L27">
-        <v>545.04207999999994</v>
+        <v>2724</v>
       </c>
       <c r="M27" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="N27" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="O27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -1881,37 +1951,40 @@
         <v>2023</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="E28" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F28">
-        <v>175</v>
-      </c>
-      <c r="I28" t="s">
-        <v>104</v>
+        <v>55</v>
+      </c>
+      <c r="H28" t="s">
+        <v>118</v>
       </c>
       <c r="J28" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="K28" t="s">
-        <v>109</v>
+        <v>133</v>
+      </c>
+      <c r="L28">
+        <v>55</v>
       </c>
       <c r="M28" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="N28" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="O28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -1919,40 +1992,40 @@
         <v>2023</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="E29" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F29">
-        <v>734.52099999999996</v>
-      </c>
-      <c r="I29" t="s">
-        <v>104</v>
+        <v>583</v>
+      </c>
+      <c r="H29" t="s">
+        <v>118</v>
       </c>
       <c r="J29" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="K29" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="L29">
-        <v>734.52099999999996</v>
+        <v>583</v>
       </c>
       <c r="M29" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="N29" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="O29" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -1960,37 +2033,40 @@
         <v>2023</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E30" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F30">
-        <v>5</v>
+        <v>12578</v>
       </c>
       <c r="I30" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="J30" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="K30" t="s">
-        <v>109</v>
+        <v>131</v>
+      </c>
+      <c r="L30">
+        <v>12578</v>
       </c>
       <c r="M30" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="N30" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="O30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -1998,40 +2074,43 @@
         <v>2023</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E31" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F31">
-        <v>626.98357978771696</v>
+        <v>1932.222</v>
+      </c>
+      <c r="G31" t="s">
+        <v>110</v>
       </c>
       <c r="I31" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="J31" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="K31" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="L31">
-        <v>626.98357978771696</v>
+        <v>1932.222</v>
       </c>
       <c r="M31" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="N31" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="O31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -2039,40 +2118,40 @@
         <v>2023</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D32" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E32" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="F32">
-        <v>5977.02</v>
-      </c>
-      <c r="H32" t="s">
-        <v>101</v>
+        <v>2.255</v>
+      </c>
+      <c r="I32" t="s">
+        <v>122</v>
       </c>
       <c r="J32" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="K32" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="L32">
-        <v>5977.02</v>
+        <v>2.68345</v>
       </c>
       <c r="M32" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="N32" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="O32" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -2080,40 +2159,40 @@
         <v>2023</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E33" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F33">
-        <v>2819.39</v>
-      </c>
-      <c r="H33" t="s">
-        <v>101</v>
+        <v>4346.921</v>
+      </c>
+      <c r="I33" t="s">
+        <v>122</v>
       </c>
       <c r="J33" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="K33" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="L33">
-        <v>2819.39</v>
+        <v>4346.921</v>
       </c>
       <c r="M33" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="N33" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="O33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -2121,40 +2200,40 @@
         <v>2023</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E34" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="F34">
-        <v>231239.82</v>
-      </c>
-      <c r="H34" t="s">
-        <v>101</v>
+        <v>619.366</v>
+      </c>
+      <c r="I34" t="s">
+        <v>122</v>
       </c>
       <c r="J34" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="K34" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="L34">
-        <v>231.23982000000001</v>
+        <v>545.0420799999999</v>
       </c>
       <c r="M34" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="N34" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="O34" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -2162,40 +2241,40 @@
         <v>2023</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D35" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E35" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="F35">
-        <v>526.21</v>
-      </c>
-      <c r="H35" t="s">
-        <v>101</v>
+        <v>175</v>
+      </c>
+      <c r="I35" t="s">
+        <v>122</v>
       </c>
       <c r="J35" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="K35" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="L35">
-        <v>526.21</v>
+        <v>0.26425</v>
       </c>
       <c r="M35" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="N35" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="O35" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -2203,40 +2282,40 @@
         <v>2023</v>
       </c>
       <c r="C36" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E36" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F36">
-        <v>2269.5700000000002</v>
-      </c>
-      <c r="H36" t="s">
-        <v>101</v>
+        <v>734.521</v>
+      </c>
+      <c r="I36" t="s">
+        <v>122</v>
       </c>
       <c r="J36" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="K36" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="L36">
-        <v>2269.5700000000002</v>
+        <v>734.521</v>
       </c>
       <c r="M36" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="N36" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="O36" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -2244,40 +2323,40 @@
         <v>2023</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D37" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E37" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="F37">
-        <v>149.1</v>
-      </c>
-      <c r="H37" t="s">
-        <v>101</v>
+        <v>5</v>
+      </c>
+      <c r="I37" t="s">
+        <v>122</v>
       </c>
       <c r="J37" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="K37" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="L37">
-        <v>149.1</v>
+        <v>0.009200000000000002</v>
       </c>
       <c r="M37" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="N37" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="O37" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -2285,40 +2364,40 @@
         <v>2023</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E38" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F38">
-        <v>6390.4</v>
-      </c>
-      <c r="H38" t="s">
-        <v>101</v>
+        <v>626.983579787717</v>
+      </c>
+      <c r="I38" t="s">
+        <v>122</v>
       </c>
       <c r="J38" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="K38" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="L38">
-        <v>6390.4</v>
+        <v>626.983579787717</v>
       </c>
       <c r="M38" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="N38" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="O38" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -2326,40 +2405,40 @@
         <v>2023</v>
       </c>
       <c r="C39" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D39" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E39" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F39">
-        <v>35.4</v>
+        <v>5977.02</v>
       </c>
       <c r="H39" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="J39" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="K39" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="L39">
-        <v>35.4</v>
+        <v>5977.02</v>
       </c>
       <c r="M39" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="N39" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="O39" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -2367,40 +2446,40 @@
         <v>2023</v>
       </c>
       <c r="C40" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D40" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E40" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F40">
-        <v>60.4</v>
+        <v>2819.39</v>
       </c>
       <c r="H40" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="J40" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="K40" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="L40">
-        <v>60.4</v>
+        <v>2819.39</v>
       </c>
       <c r="M40" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="N40" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="O40" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -2408,40 +2487,40 @@
         <v>2023</v>
       </c>
       <c r="C41" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D41" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E41" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F41">
-        <v>86.6</v>
+        <v>231239.82</v>
       </c>
       <c r="H41" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="J41" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="K41" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="L41">
-        <v>86.6</v>
+        <v>231.23982</v>
       </c>
       <c r="M41" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="N41" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="O41" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -2449,40 +2528,40 @@
         <v>2023</v>
       </c>
       <c r="C42" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D42" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E42" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F42">
-        <v>1.5</v>
+        <v>526.21</v>
       </c>
       <c r="H42" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="J42" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="K42" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="L42">
-        <v>1.5</v>
+        <v>526.21</v>
       </c>
       <c r="M42" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="N42" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="O42" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -2490,40 +2569,40 @@
         <v>2023</v>
       </c>
       <c r="C43" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D43" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E43" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F43">
-        <v>399.3</v>
+        <v>2269.57</v>
       </c>
       <c r="H43" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="J43" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="K43" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="L43">
-        <v>399.3</v>
+        <v>2269.57</v>
       </c>
       <c r="M43" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="N43" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="O43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -2531,40 +2610,40 @@
         <v>2023</v>
       </c>
       <c r="C44" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D44" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E44" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F44">
-        <v>46.2</v>
+        <v>149.1</v>
       </c>
       <c r="H44" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="J44" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="K44" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="L44">
-        <v>46.2</v>
+        <v>149.1</v>
       </c>
       <c r="M44" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="N44" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="O44" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -2572,40 +2651,40 @@
         <v>2023</v>
       </c>
       <c r="C45" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D45" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E45" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F45">
-        <v>4.5</v>
+        <v>6390.4</v>
       </c>
       <c r="H45" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="J45" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="K45" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="L45">
-        <v>4.5</v>
+        <v>6390.4</v>
       </c>
       <c r="M45" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="N45" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="O45" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -2613,40 +2692,40 @@
         <v>2023</v>
       </c>
       <c r="C46" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D46" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E46" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F46">
-        <v>200.2</v>
+        <v>35.4</v>
       </c>
       <c r="H46" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="J46" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="K46" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="L46">
-        <v>200.2</v>
+        <v>35.4</v>
       </c>
       <c r="M46" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="N46" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="O46" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -2654,40 +2733,40 @@
         <v>2023</v>
       </c>
       <c r="C47" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D47" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F47">
-        <v>5069.3</v>
+        <v>60.4</v>
       </c>
       <c r="H47" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="J47" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="K47" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="L47">
-        <v>5069.3</v>
+        <v>60.4</v>
       </c>
       <c r="M47" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="N47" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="O47" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
         <v>61</v>
       </c>
@@ -2695,40 +2774,40 @@
         <v>2023</v>
       </c>
       <c r="C48" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D48" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F48">
-        <v>18.899999999999999</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="H48" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="J48" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="K48" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="L48">
-        <v>18.899999999999999</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="M48" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="N48" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="O48" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
         <v>62</v>
       </c>
@@ -2736,40 +2815,40 @@
         <v>2023</v>
       </c>
       <c r="C49" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D49" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E49" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F49">
-        <v>539</v>
+        <v>1.5</v>
       </c>
       <c r="H49" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="J49" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="K49" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="L49">
-        <v>539</v>
+        <v>1.5</v>
       </c>
       <c r="M49" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="N49" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="O49" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -2777,40 +2856,40 @@
         <v>2023</v>
       </c>
       <c r="C50" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D50" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E50" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F50">
-        <v>8.1</v>
+        <v>399.3</v>
       </c>
       <c r="H50" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="J50" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="K50" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="L50">
-        <v>8.1</v>
+        <v>399.3</v>
       </c>
       <c r="M50" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="N50" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="O50" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -2818,36 +2897,411 @@
         <v>2023</v>
       </c>
       <c r="C51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" t="s">
+        <v>76</v>
+      </c>
+      <c r="E51" t="s">
+        <v>106</v>
+      </c>
+      <c r="F51">
+        <v>1483.4</v>
+      </c>
+      <c r="G51" t="s">
+        <v>110</v>
+      </c>
+      <c r="H51" t="s">
+        <v>120</v>
+      </c>
+      <c r="J51" t="s">
+        <v>128</v>
+      </c>
+      <c r="K51" t="s">
+        <v>134</v>
+      </c>
+      <c r="L51">
+        <v>1483.4</v>
+      </c>
+      <c r="M51" t="s">
+        <v>106</v>
+      </c>
+      <c r="N51" t="s">
+        <v>139</v>
+      </c>
+      <c r="O51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" t="s">
         <v>65</v>
       </c>
-      <c r="D51" t="s">
+      <c r="B52">
+        <v>2023</v>
+      </c>
+      <c r="C52" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" t="s">
+        <v>106</v>
+      </c>
+      <c r="F52">
+        <v>46.2</v>
+      </c>
+      <c r="H52" t="s">
+        <v>120</v>
+      </c>
+      <c r="J52" t="s">
+        <v>128</v>
+      </c>
+      <c r="K52" t="s">
+        <v>134</v>
+      </c>
+      <c r="L52">
+        <v>46.2</v>
+      </c>
+      <c r="M52" t="s">
+        <v>106</v>
+      </c>
+      <c r="N52" t="s">
+        <v>139</v>
+      </c>
+      <c r="O52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53">
+        <v>2023</v>
+      </c>
+      <c r="C53" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" t="s">
+        <v>100</v>
+      </c>
+      <c r="E53" t="s">
+        <v>106</v>
+      </c>
+      <c r="F53">
+        <v>4.5</v>
+      </c>
+      <c r="H53" t="s">
+        <v>120</v>
+      </c>
+      <c r="J53" t="s">
+        <v>128</v>
+      </c>
+      <c r="K53" t="s">
+        <v>134</v>
+      </c>
+      <c r="L53">
+        <v>4.5</v>
+      </c>
+      <c r="M53" t="s">
+        <v>106</v>
+      </c>
+      <c r="N53" t="s">
+        <v>139</v>
+      </c>
+      <c r="O53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54">
+        <v>2023</v>
+      </c>
+      <c r="C54" t="s">
+        <v>74</v>
+      </c>
+      <c r="D54" t="s">
+        <v>101</v>
+      </c>
+      <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54">
+        <v>200.2</v>
+      </c>
+      <c r="H54" t="s">
+        <v>120</v>
+      </c>
+      <c r="J54" t="s">
+        <v>128</v>
+      </c>
+      <c r="K54" t="s">
+        <v>134</v>
+      </c>
+      <c r="L54">
+        <v>200.2</v>
+      </c>
+      <c r="M54" t="s">
+        <v>106</v>
+      </c>
+      <c r="N54" t="s">
+        <v>139</v>
+      </c>
+      <c r="O54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55">
+        <v>2023</v>
+      </c>
+      <c r="C55" t="s">
+        <v>74</v>
+      </c>
+      <c r="D55" t="s">
+        <v>79</v>
+      </c>
+      <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55">
+        <v>5069.3</v>
+      </c>
+      <c r="H55" t="s">
+        <v>120</v>
+      </c>
+      <c r="J55" t="s">
+        <v>128</v>
+      </c>
+      <c r="K55" t="s">
+        <v>134</v>
+      </c>
+      <c r="L55">
+        <v>5069.3</v>
+      </c>
+      <c r="M55" t="s">
+        <v>106</v>
+      </c>
+      <c r="N55" t="s">
+        <v>139</v>
+      </c>
+      <c r="O55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56">
+        <v>2023</v>
+      </c>
+      <c r="C56" t="s">
+        <v>74</v>
+      </c>
+      <c r="D56" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56">
+        <v>18.9</v>
+      </c>
+      <c r="H56" t="s">
+        <v>120</v>
+      </c>
+      <c r="J56" t="s">
+        <v>128</v>
+      </c>
+      <c r="K56" t="s">
+        <v>134</v>
+      </c>
+      <c r="L56">
+        <v>18.9</v>
+      </c>
+      <c r="M56" t="s">
+        <v>106</v>
+      </c>
+      <c r="N56" t="s">
+        <v>139</v>
+      </c>
+      <c r="O56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57">
+        <v>2023</v>
+      </c>
+      <c r="C57" t="s">
+        <v>74</v>
+      </c>
+      <c r="D57" t="s">
+        <v>103</v>
+      </c>
+      <c r="E57" t="s">
+        <v>106</v>
+      </c>
+      <c r="F57">
+        <v>539</v>
+      </c>
+      <c r="H57" t="s">
+        <v>120</v>
+      </c>
+      <c r="J57" t="s">
+        <v>128</v>
+      </c>
+      <c r="K57" t="s">
+        <v>134</v>
+      </c>
+      <c r="L57">
+        <v>539</v>
+      </c>
+      <c r="M57" t="s">
+        <v>106</v>
+      </c>
+      <c r="N57" t="s">
+        <v>139</v>
+      </c>
+      <c r="O57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58">
+        <v>2023</v>
+      </c>
+      <c r="C58" t="s">
+        <v>74</v>
+      </c>
+      <c r="D58" t="s">
+        <v>104</v>
+      </c>
+      <c r="E58" t="s">
+        <v>106</v>
+      </c>
+      <c r="F58">
+        <v>8.1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>120</v>
+      </c>
+      <c r="J58" t="s">
+        <v>128</v>
+      </c>
+      <c r="K58" t="s">
+        <v>134</v>
+      </c>
+      <c r="L58">
+        <v>8.1</v>
+      </c>
+      <c r="M58" t="s">
+        <v>106</v>
+      </c>
+      <c r="N58" t="s">
+        <v>139</v>
+      </c>
+      <c r="O58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59">
+        <v>2023</v>
+      </c>
+      <c r="C59" t="s">
+        <v>74</v>
+      </c>
+      <c r="D59" t="s">
+        <v>86</v>
+      </c>
+      <c r="E59" t="s">
+        <v>106</v>
+      </c>
+      <c r="F59">
+        <v>2599.5</v>
+      </c>
+      <c r="G59" t="s">
+        <v>110</v>
+      </c>
+      <c r="H59" t="s">
+        <v>121</v>
+      </c>
+      <c r="J59" t="s">
+        <v>126</v>
+      </c>
+      <c r="K59" t="s">
+        <v>132</v>
+      </c>
+      <c r="L59">
+        <v>2599.5</v>
+      </c>
+      <c r="M59" t="s">
+        <v>106</v>
+      </c>
+      <c r="N59" t="s">
+        <v>139</v>
+      </c>
+      <c r="O59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" t="s">
         <v>73</v>
       </c>
-      <c r="E51" t="s">
-        <v>93</v>
-      </c>
-      <c r="F51">
+      <c r="B60">
+        <v>2023</v>
+      </c>
+      <c r="C60" t="s">
+        <v>74</v>
+      </c>
+      <c r="D60" t="s">
+        <v>85</v>
+      </c>
+      <c r="E60" t="s">
+        <v>106</v>
+      </c>
+      <c r="F60">
         <v>1955.7</v>
       </c>
-      <c r="H51" t="s">
-        <v>103</v>
-      </c>
-      <c r="J51" t="s">
-        <v>106</v>
-      </c>
-      <c r="K51" t="s">
-        <v>110</v>
-      </c>
-      <c r="L51">
+      <c r="H60" t="s">
+        <v>121</v>
+      </c>
+      <c r="J60" t="s">
+        <v>126</v>
+      </c>
+      <c r="K60" t="s">
+        <v>132</v>
+      </c>
+      <c r="L60">
         <v>1955.7</v>
       </c>
-      <c r="M51" t="s">
-        <v>93</v>
-      </c>
-      <c r="N51" t="s">
-        <v>116</v>
-      </c>
-      <c r="O51" t="b">
+      <c r="M60" t="s">
+        <v>106</v>
+      </c>
+      <c r="N60" t="s">
+        <v>139</v>
+      </c>
+      <c r="O60" t="b">
         <v>0</v>
       </c>
     </row>

--- a/data/MetalliCan/pre_cleaned_data/material_df.xlsx
+++ b/data/MetalliCan/pre_cleaned_data/material_df.xlsx
@@ -61,394 +61,394 @@
     <t>needs_density</t>
   </si>
   <si>
-    <t>TECH-b86f7d07-2023-4</t>
-  </si>
-  <si>
-    <t>TECH-cb85213a-2023-2</t>
+    <t>TECH-aa76f6f2-2023-1</t>
+  </si>
+  <si>
+    <t>TECH-0aadf28f-2023-1</t>
+  </si>
+  <si>
+    <t>TECH-aa76f6f2-2023-2</t>
+  </si>
+  <si>
+    <t>TECH-0aadf28f-2023-2</t>
+  </si>
+  <si>
+    <t>TECH-aa76f6f2-2023-3</t>
+  </si>
+  <si>
+    <t>TECH-0aadf28f-2023-3</t>
+  </si>
+  <si>
+    <t>TECH-02884fb5-2023-2</t>
+  </si>
+  <si>
+    <t>TECH-02884fb5-2023-3</t>
+  </si>
+  <si>
+    <t>TECH-0aadf28f-2023-4</t>
+  </si>
+  <si>
+    <t>TECH-02884fb5-2023-4</t>
   </si>
   <si>
     <t>TECH-6dc537e6-2023-2</t>
   </si>
   <si>
-    <t>TECH-6dc537e6-2023-5</t>
-  </si>
-  <si>
-    <t>TECH-6dc537e6-2023-6</t>
+    <t>TECH-fefeaee4-2023-3</t>
+  </si>
+  <si>
+    <t>TECH-GRP-0d911886-2023-2</t>
+  </si>
+  <si>
+    <t>TECH-02884fb5-2023-5</t>
+  </si>
+  <si>
+    <t>TECH-0aadf28f-2023-5</t>
+  </si>
+  <si>
+    <t>TECH-02884fb5-2023-6</t>
+  </si>
+  <si>
+    <t>TECH-cb85213a-2023-4</t>
+  </si>
+  <si>
+    <t>TECH-9de9bb0d-2023-4</t>
+  </si>
+  <si>
+    <t>TECH-02884fb5-2023-10</t>
+  </si>
+  <si>
+    <t>TECH-aa76f6f2-2023-8</t>
+  </si>
+  <si>
+    <t>TECH-0aadf28f-2023-9</t>
+  </si>
+  <si>
+    <t>TECH-02884fb5-2023-11</t>
+  </si>
+  <si>
+    <t>TECH-02884fb5-2023-13</t>
   </si>
   <si>
     <t>TECH-6dc537e6-2023-7</t>
   </si>
   <si>
+    <t>TECH-fefeaee4-2023-8</t>
+  </si>
+  <si>
+    <t>TECH-GRP-0d911886-2023-7</t>
+  </si>
+  <si>
+    <t>TECH-02884fb5-2023-14</t>
+  </si>
+  <si>
+    <t>TECH-fefeaee4-2023-9</t>
+  </si>
+  <si>
+    <t>TECH-GRP-0d911886-2023-8</t>
+  </si>
+  <si>
     <t>TECH-6dc537e6-2023-8</t>
   </si>
   <si>
+    <t>TECH-fefeaee4-2023-10</t>
+  </si>
+  <si>
+    <t>TECH-aa76f6f2-2023-10</t>
+  </si>
+  <si>
+    <t>TECH-GRP-0d911886-2023-9</t>
+  </si>
+  <si>
+    <t>TECH-0aadf28f-2023-11</t>
+  </si>
+  <si>
+    <t>TECH-02884fb5-2023-15</t>
+  </si>
+  <si>
+    <t>TECH-6dc537e6-2023-9</t>
+  </si>
+  <si>
+    <t>TECH-fefeaee4-2023-11</t>
+  </si>
+  <si>
+    <t>TECH-GRP-0d911886-2023-10</t>
+  </si>
+  <si>
+    <t>TECH-02884fb5-2023-16</t>
+  </si>
+  <si>
     <t>TECH-6dc537e6-2023-10</t>
   </si>
   <si>
-    <t>TECH-6dc537e6-2023-11</t>
+    <t>TECH-GRP-0d911886-2023-12</t>
+  </si>
+  <si>
+    <t>TECH-aa76f6f2-2023-12</t>
+  </si>
+  <si>
+    <t>TECH-aa76f6f2-2023-14</t>
   </si>
   <si>
     <t>TECH-6dc537e6-2023-12</t>
   </si>
   <si>
+    <t>TECH-fefeaee4-2023-13</t>
+  </si>
+  <si>
+    <t>TECH-GRP-0d911886-2023-14</t>
+  </si>
+  <si>
+    <t>TECH-02884fb5-2023-19</t>
+  </si>
+  <si>
+    <t>TECH-6dc537e6-2023-13</t>
+  </si>
+  <si>
+    <t>TECH-GRP-0d911886-2023-15</t>
+  </si>
+  <si>
+    <t>TECH-b86f7d07-2023-5</t>
+  </si>
+  <si>
+    <t>TECH-44857446-2023-5</t>
+  </si>
+  <si>
+    <t>TECH-6dc537e6-2023-14</t>
+  </si>
+  <si>
+    <t>TECH-fefeaee4-2023-15</t>
+  </si>
+  <si>
+    <t>TECH-GRP-0d911886-2023-16</t>
+  </si>
+  <si>
     <t>TECH-687b8c8d-2023-6</t>
   </si>
   <si>
+    <t>TECH-7607a50e-2023-7</t>
+  </si>
+  <si>
     <t>TECH-687b8c8d-2023-7</t>
   </si>
   <si>
-    <t>TECH-44857446-2023-4</t>
-  </si>
-  <si>
-    <t>TECH-9de9bb0d-2023-2</t>
-  </si>
-  <si>
-    <t>TECH-fefeaee4-2023-3</t>
-  </si>
-  <si>
-    <t>TECH-fefeaee4-2023-6</t>
-  </si>
-  <si>
-    <t>TECH-fefeaee4-2023-7</t>
-  </si>
-  <si>
-    <t>TECH-fefeaee4-2023-8</t>
-  </si>
-  <si>
-    <t>TECH-fefeaee4-2023-9</t>
-  </si>
-  <si>
-    <t>TECH-fefeaee4-2023-11</t>
-  </si>
-  <si>
-    <t>TECH-fefeaee4-2023-13</t>
-  </si>
-  <si>
-    <t>TECH-aa76f6f2-2023-3</t>
-  </si>
-  <si>
-    <t>TECH-aa76f6f2-2023-4</t>
-  </si>
-  <si>
-    <t>TECH-aa76f6f2-2023-5</t>
-  </si>
-  <si>
-    <t>TECH-aa76f6f2-2023-8</t>
-  </si>
-  <si>
-    <t>TECH-aa76f6f2-2023-10</t>
-  </si>
-  <si>
-    <t>TECH-aa76f6f2-2023-12</t>
-  </si>
-  <si>
-    <t>TECH-aa76f6f2-2023-14</t>
-  </si>
-  <si>
-    <t>TECH-GRP-0d911886-2023-2</t>
-  </si>
-  <si>
-    <t>TECH-GRP-0d911886-2023-6</t>
-  </si>
-  <si>
-    <t>TECH-GRP-0d911886-2023-7</t>
-  </si>
-  <si>
-    <t>TECH-GRP-0d911886-2023-8</t>
-  </si>
-  <si>
-    <t>TECH-GRP-0d911886-2023-9</t>
-  </si>
-  <si>
-    <t>TECH-GRP-0d911886-2023-11</t>
-  </si>
-  <si>
-    <t>TECH-GRP-0d911886-2023-13</t>
-  </si>
-  <si>
-    <t>TECH-GRP-0d911886-2023-14</t>
-  </si>
-  <si>
-    <t>TECH-GRP-0d911886-2023-15</t>
-  </si>
-  <si>
-    <t>TECH-0aadf28f-2023-2</t>
-  </si>
-  <si>
-    <t>TECH-0aadf28f-2023-3</t>
-  </si>
-  <si>
-    <t>TECH-0aadf28f-2023-4</t>
-  </si>
-  <si>
-    <t>TECH-0aadf28f-2023-5</t>
-  </si>
-  <si>
-    <t>TECH-0aadf28f-2023-6</t>
-  </si>
-  <si>
-    <t>TECH-0aadf28f-2023-9</t>
-  </si>
-  <si>
-    <t>TECH-0aadf28f-2023-11</t>
-  </si>
-  <si>
-    <t>TECH-02884fb5-2023-3</t>
-  </si>
-  <si>
-    <t>TECH-02884fb5-2023-4</t>
-  </si>
-  <si>
-    <t>TECH-02884fb5-2023-5</t>
-  </si>
-  <si>
-    <t>TECH-02884fb5-2023-6</t>
-  </si>
-  <si>
-    <t>TECH-02884fb5-2023-7</t>
-  </si>
-  <si>
-    <t>TECH-02884fb5-2023-10</t>
-  </si>
-  <si>
-    <t>TECH-02884fb5-2023-11</t>
-  </si>
-  <si>
-    <t>TECH-02884fb5-2023-13</t>
-  </si>
-  <si>
-    <t>TECH-02884fb5-2023-14</t>
-  </si>
-  <si>
-    <t>TECH-02884fb5-2023-15</t>
-  </si>
-  <si>
-    <t>TECH-02884fb5-2023-16</t>
-  </si>
-  <si>
-    <t>TECH-02884fb5-2023-19</t>
+    <t>TECH-7607a50e-2023-8</t>
   </si>
   <si>
     <t>TECH-02884fb5-2023-20</t>
   </si>
   <si>
-    <t>TECH-7607a50e-2023-7</t>
-  </si>
-  <si>
-    <t>TECH-7607a50e-2023-8</t>
-  </si>
-  <si>
     <t>Material use</t>
   </si>
   <si>
+    <t>2'' balls</t>
+  </si>
+  <si>
+    <t>2.5'' balls</t>
+  </si>
+  <si>
+    <t>3/4'' balls</t>
+  </si>
+  <si>
+    <t>5.5'' balls</t>
+  </si>
+  <si>
+    <t>Anti-scalant</t>
+  </si>
+  <si>
+    <t>Carbon</t>
+  </si>
+  <si>
+    <t>Caustic soda</t>
+  </si>
+  <si>
+    <t>Cement</t>
+  </si>
+  <si>
+    <t>Compressor oil</t>
+  </si>
+  <si>
+    <t>Cyanide</t>
+  </si>
+  <si>
+    <t>Explosives</t>
+  </si>
+  <si>
+    <t>Flocculant</t>
+  </si>
+  <si>
+    <t>Grease</t>
+  </si>
+  <si>
+    <t>Grinding media</t>
+  </si>
+  <si>
+    <t>Hydraulic oil</t>
+  </si>
+  <si>
+    <t>Hydrochloric acid (HCL)</t>
+  </si>
+  <si>
+    <t>Lime</t>
+  </si>
+  <si>
+    <t>Lubricants</t>
+  </si>
+  <si>
+    <t>Motor/drill oil</t>
+  </si>
+  <si>
+    <t>Nitric acid (HNO3)</t>
+  </si>
+  <si>
+    <t>Polyfroth h57</t>
+  </si>
+  <si>
+    <t>S60 SAG Balls</t>
+  </si>
+  <si>
+    <t>Sodium cyanide (NaCN)</t>
+  </si>
+  <si>
+    <t>Sulfur dioxide</t>
+  </si>
+  <si>
+    <t>Sulfuric acid (H2SO4)</t>
+  </si>
+  <si>
     <t>Surface/underground emulsion &amp; ANFO</t>
   </si>
   <si>
-    <t>Explosives</t>
-  </si>
-  <si>
-    <t>Cement</t>
-  </si>
-  <si>
-    <t>Grinding media</t>
-  </si>
-  <si>
-    <t>Lime</t>
-  </si>
-  <si>
-    <t>Lubricants</t>
-  </si>
-  <si>
-    <t>Nitric acid (HNO3)</t>
-  </si>
-  <si>
-    <t>Sodium cyanide (NaCN)</t>
-  </si>
-  <si>
-    <t>Sulfuric acid (H2SO4)</t>
-  </si>
-  <si>
     <t>Tires</t>
   </si>
   <si>
+    <t>Total blasting agents used e.g. ANFO</t>
+  </si>
+  <si>
     <t>Total sodium cyanide used</t>
   </si>
   <si>
-    <t>Total blasting agents used e.g. ANFO</t>
-  </si>
-  <si>
-    <t>Hydrochloric acid (HCL)</t>
-  </si>
-  <si>
-    <t>2'' balls</t>
-  </si>
-  <si>
-    <t>3/4'' balls</t>
-  </si>
-  <si>
-    <t>Anti-scalant</t>
-  </si>
-  <si>
-    <t>Flocculant</t>
-  </si>
-  <si>
-    <t>Polyfroth h57</t>
-  </si>
-  <si>
-    <t>S60 SAG Balls</t>
-  </si>
-  <si>
-    <t>2.5'' balls</t>
-  </si>
-  <si>
-    <t>5.5'' balls</t>
-  </si>
-  <si>
-    <t>Caustic soda</t>
-  </si>
-  <si>
-    <t>Cyanide</t>
-  </si>
-  <si>
-    <t>Carbon</t>
-  </si>
-  <si>
-    <t>Compressor oil</t>
-  </si>
-  <si>
-    <t>Grease</t>
-  </si>
-  <si>
-    <t>Hydraulic oil</t>
-  </si>
-  <si>
-    <t>Motor/drill oil</t>
-  </si>
-  <si>
-    <t>Sulfur dioxide</t>
-  </si>
-  <si>
     <t>Transmission oil</t>
   </si>
   <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>kl</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
     <t>pounds</t>
   </si>
   <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>kl</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>kg</t>
-  </si>
-  <si>
     <t>Explosives, treated as material input because in t</t>
   </si>
   <si>
+    <t>BC-MAIN-aa76f6f2</t>
+  </si>
+  <si>
+    <t>ON-MAIN-0aadf28f</t>
+  </si>
+  <si>
+    <t>QC-MAIN-02884fb5</t>
+  </si>
+  <si>
+    <t>QC-MAIN-6dc537e6</t>
+  </si>
+  <si>
+    <t>ON-MAIN-fefeaee4</t>
+  </si>
+  <si>
+    <t>ON-MAIN-cb85213a</t>
+  </si>
+  <si>
+    <t>QC-MAIN-9de9bb0d</t>
+  </si>
+  <si>
     <t>QC-MAIN-b86f7d07</t>
   </si>
   <si>
-    <t>ON-MAIN-cb85213a</t>
-  </si>
-  <si>
-    <t>QC-MAIN-6dc537e6</t>
+    <t>YT-MAIN-44857446</t>
   </si>
   <si>
     <t>ON-MAIN-687b8c8d</t>
   </si>
   <si>
-    <t>YT-MAIN-44857446</t>
-  </si>
-  <si>
-    <t>QC-MAIN-9de9bb0d</t>
-  </si>
-  <si>
-    <t>ON-MAIN-fefeaee4</t>
-  </si>
-  <si>
-    <t>BC-MAIN-aa76f6f2</t>
-  </si>
-  <si>
-    <t>ON-MAIN-0aadf28f</t>
-  </si>
-  <si>
-    <t>QC-MAIN-02884fb5</t>
-  </si>
-  <si>
     <t>ON-MAIN-7607a50e</t>
   </si>
   <si>
     <t>GRP-0d911886</t>
   </si>
   <si>
+    <t>CMP-d94be190</t>
+  </si>
+  <si>
+    <t>CMP-3d0a95b7</t>
+  </si>
+  <si>
+    <t>CMP-4a434d72</t>
+  </si>
+  <si>
+    <t>CMP-3d2c4955</t>
+  </si>
+  <si>
     <t>CMP-7e360a1f</t>
   </si>
   <si>
-    <t>CMP-3d2c4955</t>
-  </si>
-  <si>
-    <t>CMP-4a434d72</t>
-  </si>
-  <si>
     <t>CMP-3a4ccc7f</t>
   </si>
   <si>
-    <t>CMP-d94be190</t>
-  </si>
-  <si>
-    <t>CMP-3d0a95b7</t>
+    <t>SRC_NewGoldInc_2023-New-Gold-ESG-Data-Factbook</t>
+  </si>
+  <si>
+    <t>SRC_IAMGOLDCorporation_2023_iamgold-esg-performance-data-final_protected</t>
+  </si>
+  <si>
+    <t>SRC_NewmontCorporation_Newmont-2023-Performance-Data-Tables-V4-locked</t>
+  </si>
+  <si>
+    <t>SRC_WesdomeGoldMinesLtd._ESG_data_2023</t>
   </si>
   <si>
     <t>SRC_HeclaMiningCompany_SR_2023</t>
   </si>
   <si>
-    <t>SRC_WesdomeGoldMinesLtd._ESG_data_2023</t>
-  </si>
-  <si>
-    <t>SRC_NewmontCorporation_Newmont-2023-Performance-Data-Tables-V4-locked</t>
-  </si>
-  <si>
     <t>SRC_AlamosGoldInc_Data_2023</t>
   </si>
   <si>
-    <t>SRC_NewGoldInc_2023-New-Gold-ESG-Data-Factbook</t>
-  </si>
-  <si>
-    <t>SRC_IAMGOLDCorporation_2023_iamgold-esg-performance-data-final_protected</t>
+    <t>kg→t</t>
+  </si>
+  <si>
+    <t>L×density→t</t>
   </si>
   <si>
     <t>lbs→t</t>
   </si>
   <si>
-    <t>L×density→t</t>
-  </si>
-  <si>
-    <t>kg→t</t>
+    <t>reported in tonnes</t>
+  </si>
+  <si>
+    <t>kg/1000</t>
+  </si>
+  <si>
+    <t>kl×density=1.19 kg/L</t>
+  </si>
+  <si>
+    <t>kl×density=0.88 kg/L</t>
+  </si>
+  <si>
+    <t>l×density=1.51 kg/L</t>
+  </si>
+  <si>
+    <t>l×density=1.84 kg/L</t>
   </si>
   <si>
     <t>lbs×0.453592/1000</t>
-  </si>
-  <si>
-    <t>reported in tonnes</t>
-  </si>
-  <si>
-    <t>kl×density=0.88 kg/L</t>
-  </si>
-  <si>
-    <t>l×density=1.51 kg/L</t>
-  </si>
-  <si>
-    <t>l×density=1.84 kg/L</t>
-  </si>
-  <si>
-    <t>kl×density=1.19 kg/L</t>
-  </si>
-  <si>
-    <t>kg/1000</t>
   </si>
 </sst>
 </file>
@@ -876,10 +876,7 @@
         <v>105</v>
       </c>
       <c r="F2">
-        <v>6543598</v>
-      </c>
-      <c r="G2" t="s">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="H2" t="s">
         <v>111</v>
@@ -891,10 +888,10 @@
         <v>129</v>
       </c>
       <c r="L2">
-        <v>2968.123704016</v>
+        <v>980</v>
       </c>
       <c r="M2" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="N2" t="s">
         <v>138</v>
@@ -917,31 +914,28 @@
         <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F3">
-        <v>1211</v>
-      </c>
-      <c r="G3" t="s">
-        <v>110</v>
+        <v>5977.02</v>
       </c>
       <c r="H3" t="s">
         <v>112</v>
       </c>
       <c r="J3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L3">
-        <v>1211</v>
+        <v>5977.02</v>
       </c>
       <c r="M3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O3" t="b">
         <v>0</v>
@@ -961,28 +955,28 @@
         <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F4">
-        <v>27374</v>
+        <v>179</v>
       </c>
       <c r="H4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L4">
-        <v>27374</v>
+        <v>179</v>
       </c>
       <c r="M4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O4" t="b">
         <v>0</v>
@@ -1002,31 +996,28 @@
         <v>78</v>
       </c>
       <c r="E5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F5">
-        <v>3039.9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>110</v>
+        <v>2819.39</v>
       </c>
       <c r="H5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L5">
-        <v>3039.9</v>
+        <v>2819.39</v>
       </c>
       <c r="M5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O5" t="b">
         <v>0</v>
@@ -1049,22 +1040,22 @@
         <v>106</v>
       </c>
       <c r="F6">
-        <v>2229</v>
+        <v>38000</v>
       </c>
       <c r="H6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L6">
-        <v>2229</v>
+        <v>38</v>
       </c>
       <c r="M6" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="N6" t="s">
         <v>139</v>
@@ -1084,31 +1075,31 @@
         <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F7">
-        <v>380.687</v>
+        <v>231239.82</v>
       </c>
       <c r="H7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L7">
-        <v>335.00456</v>
+        <v>231.23982</v>
       </c>
       <c r="M7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O7" t="b">
         <v>0</v>
@@ -1125,31 +1116,31 @@
         <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F8">
-        <v>26575</v>
+        <v>35.4</v>
       </c>
       <c r="H8" t="s">
         <v>113</v>
       </c>
       <c r="J8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L8">
-        <v>40.12825</v>
+        <v>35.4</v>
       </c>
       <c r="M8" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="N8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O8" t="b">
         <v>0</v>
@@ -1166,31 +1157,31 @@
         <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F9">
-        <v>838.8</v>
+        <v>60.4</v>
       </c>
       <c r="H9" t="s">
         <v>113</v>
       </c>
       <c r="J9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L9">
-        <v>838.8</v>
+        <v>60.4</v>
       </c>
       <c r="M9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O9" t="b">
         <v>0</v>
@@ -1207,31 +1198,31 @@
         <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F10">
-        <v>73.95999999999999</v>
+        <v>526.21</v>
       </c>
       <c r="H10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L10">
-        <v>0.1360864</v>
+        <v>526.21</v>
       </c>
       <c r="M10" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="N10" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="O10" t="b">
         <v>0</v>
@@ -1248,31 +1239,31 @@
         <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F11">
-        <v>241.250566996281</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="H11" t="s">
         <v>113</v>
       </c>
       <c r="J11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L11">
-        <v>241.250566996281</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="M11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O11" t="b">
         <v>0</v>
@@ -1289,31 +1280,31 @@
         <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F12">
-        <v>245</v>
+        <v>27374</v>
       </c>
       <c r="H12" t="s">
         <v>114</v>
       </c>
       <c r="J12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L12">
-        <v>245</v>
+        <v>27374</v>
       </c>
       <c r="M12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O12" t="b">
         <v>0</v>
@@ -1330,31 +1321,31 @@
         <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F13">
-        <v>486.3</v>
+        <v>9417.6</v>
       </c>
       <c r="H13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L13">
-        <v>486.3</v>
+        <v>9417.6</v>
       </c>
       <c r="M13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O13" t="b">
         <v>0</v>
@@ -1371,31 +1362,28 @@
         <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
         <v>105</v>
       </c>
       <c r="F14">
-        <v>511210</v>
-      </c>
-      <c r="G14" t="s">
-        <v>110</v>
-      </c>
-      <c r="H14" t="s">
-        <v>115</v>
+        <v>12578</v>
+      </c>
+      <c r="I14" t="s">
+        <v>122</v>
       </c>
       <c r="J14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L14">
-        <v>231.88076632</v>
+        <v>12578</v>
       </c>
       <c r="M14" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="N14" t="s">
         <v>138</v>
@@ -1415,19 +1403,16 @@
         <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F15">
-        <v>506</v>
-      </c>
-      <c r="G15" t="s">
-        <v>110</v>
+        <v>1.5</v>
       </c>
       <c r="H15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J15" t="s">
         <v>124</v>
@@ -1436,13 +1421,13 @@
         <v>130</v>
       </c>
       <c r="L15">
-        <v>506</v>
+        <v>1.5</v>
       </c>
       <c r="M15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O15" t="b">
         <v>0</v>
@@ -1459,31 +1444,31 @@
         <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F16">
-        <v>9417.6</v>
+        <v>2269.57</v>
       </c>
       <c r="H16" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="J16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L16">
-        <v>9417.6</v>
+        <v>2269.57</v>
       </c>
       <c r="M16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O16" t="b">
         <v>0</v>
@@ -1500,34 +1485,31 @@
         <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F17">
-        <v>726.071</v>
-      </c>
-      <c r="G17" t="s">
-        <v>110</v>
+        <v>399.3</v>
       </c>
       <c r="H17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L17">
-        <v>726.071</v>
+        <v>399.3</v>
       </c>
       <c r="M17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O17" t="b">
         <v>0</v>
@@ -1544,31 +1526,34 @@
         <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F18">
-        <v>57.2</v>
+        <v>1211</v>
+      </c>
+      <c r="G18" t="s">
+        <v>110</v>
       </c>
       <c r="H18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L18">
-        <v>68.068</v>
+        <v>1211</v>
       </c>
       <c r="M18" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="N18" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="O18" t="b">
         <v>0</v>
@@ -1585,31 +1570,34 @@
         <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F19">
-        <v>924.081</v>
+        <v>506</v>
+      </c>
+      <c r="G19" t="s">
+        <v>110</v>
       </c>
       <c r="H19" t="s">
         <v>117</v>
       </c>
       <c r="J19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L19">
-        <v>924.081</v>
+        <v>506</v>
       </c>
       <c r="M19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O19" t="b">
         <v>0</v>
@@ -1626,31 +1614,34 @@
         <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F20">
-        <v>336.521</v>
+        <v>1483.4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>110</v>
       </c>
       <c r="H20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L20">
-        <v>296.13848</v>
+        <v>1483.4</v>
       </c>
       <c r="M20" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="N20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O20" t="b">
         <v>0</v>
@@ -1667,31 +1658,31 @@
         <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F21">
-        <v>390.003</v>
+        <v>192</v>
       </c>
       <c r="H21" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L21">
-        <v>390.003</v>
+        <v>192</v>
       </c>
       <c r="M21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O21" t="b">
         <v>0</v>
@@ -1708,31 +1699,31 @@
         <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F22">
-        <v>100.705343372947</v>
+        <v>149.1</v>
       </c>
       <c r="H22" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="J22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L22">
-        <v>100.705343372947</v>
+        <v>149.1</v>
       </c>
       <c r="M22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O22" t="b">
         <v>0</v>
@@ -1749,31 +1740,31 @@
         <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F23">
-        <v>980</v>
+        <v>46.2</v>
       </c>
       <c r="H23" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="J23" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K23" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L23">
-        <v>980</v>
+        <v>46.2</v>
       </c>
       <c r="M23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O23" t="b">
         <v>0</v>
@@ -1790,31 +1781,31 @@
         <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F24">
-        <v>179</v>
+        <v>4.5</v>
       </c>
       <c r="H24" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="J24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L24">
-        <v>179</v>
+        <v>4.5</v>
       </c>
       <c r="M24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O24" t="b">
         <v>0</v>
@@ -1831,31 +1822,34 @@
         <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E25" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F25">
-        <v>38000</v>
+        <v>3039.9</v>
+      </c>
+      <c r="G25" t="s">
+        <v>110</v>
       </c>
       <c r="H25" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L25">
-        <v>38</v>
+        <v>3039.9</v>
       </c>
       <c r="M25" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="N25" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="O25" t="b">
         <v>0</v>
@@ -1872,31 +1866,34 @@
         <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F26">
-        <v>192</v>
+        <v>726.071</v>
+      </c>
+      <c r="G26" t="s">
+        <v>110</v>
       </c>
       <c r="H26" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L26">
-        <v>192</v>
+        <v>726.071</v>
       </c>
       <c r="M26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O26" t="b">
         <v>0</v>
@@ -1913,31 +1910,34 @@
         <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F27">
-        <v>2724</v>
-      </c>
-      <c r="H27" t="s">
-        <v>118</v>
+        <v>1932.222</v>
+      </c>
+      <c r="G27" t="s">
+        <v>110</v>
+      </c>
+      <c r="I27" t="s">
+        <v>122</v>
       </c>
       <c r="J27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L27">
-        <v>2724</v>
+        <v>1932.222</v>
       </c>
       <c r="M27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O27" t="b">
         <v>0</v>
@@ -1954,31 +1954,31 @@
         <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F28">
-        <v>55</v>
+        <v>200.2</v>
       </c>
       <c r="H28" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="J28" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K28" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L28">
-        <v>55</v>
+        <v>200.2</v>
       </c>
       <c r="M28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O28" t="b">
         <v>0</v>
@@ -1995,31 +1995,31 @@
         <v>74</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F29">
-        <v>583</v>
+        <v>57.2</v>
       </c>
       <c r="H29" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L29">
-        <v>583</v>
+        <v>68.068</v>
       </c>
       <c r="M29" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="N29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O29" t="b">
         <v>0</v>
@@ -2036,13 +2036,13 @@
         <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="E30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F30">
-        <v>12578</v>
+        <v>2.255</v>
       </c>
       <c r="I30" t="s">
         <v>122</v>
@@ -2054,13 +2054,13 @@
         <v>131</v>
       </c>
       <c r="L30">
-        <v>12578</v>
+        <v>2.68345</v>
       </c>
       <c r="M30" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="N30" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O30" t="b">
         <v>0</v>
@@ -2077,19 +2077,16 @@
         <v>74</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F31">
-        <v>1932.222</v>
-      </c>
-      <c r="G31" t="s">
-        <v>110</v>
-      </c>
-      <c r="I31" t="s">
-        <v>122</v>
+        <v>2229</v>
+      </c>
+      <c r="H31" t="s">
+        <v>114</v>
       </c>
       <c r="J31" t="s">
         <v>125</v>
@@ -2098,13 +2095,13 @@
         <v>131</v>
       </c>
       <c r="L31">
-        <v>1932.222</v>
+        <v>2229</v>
       </c>
       <c r="M31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O31" t="b">
         <v>0</v>
@@ -2121,16 +2118,16 @@
         <v>74</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F32">
-        <v>2.255</v>
-      </c>
-      <c r="I32" t="s">
-        <v>122</v>
+        <v>924.081</v>
+      </c>
+      <c r="H32" t="s">
+        <v>115</v>
       </c>
       <c r="J32" t="s">
         <v>125</v>
@@ -2139,13 +2136,13 @@
         <v>131</v>
       </c>
       <c r="L32">
-        <v>2.68345</v>
+        <v>924.081</v>
       </c>
       <c r="M32" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="N32" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="O32" t="b">
         <v>0</v>
@@ -2162,31 +2159,31 @@
         <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F33">
-        <v>4346.921</v>
-      </c>
-      <c r="I33" t="s">
-        <v>122</v>
+        <v>2724</v>
+      </c>
+      <c r="H33" t="s">
+        <v>111</v>
       </c>
       <c r="J33" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L33">
-        <v>4346.921</v>
+        <v>2724</v>
       </c>
       <c r="M33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O33" t="b">
         <v>0</v>
@@ -2203,13 +2200,13 @@
         <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F34">
-        <v>619.366</v>
+        <v>4346.921</v>
       </c>
       <c r="I34" t="s">
         <v>122</v>
@@ -2221,13 +2218,13 @@
         <v>131</v>
       </c>
       <c r="L34">
-        <v>545.0420799999999</v>
+        <v>4346.921</v>
       </c>
       <c r="M34" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="N34" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O34" t="b">
         <v>0</v>
@@ -2244,31 +2241,31 @@
         <v>74</v>
       </c>
       <c r="D35" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E35" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F35">
-        <v>175</v>
-      </c>
-      <c r="I35" t="s">
-        <v>122</v>
+        <v>6390.4</v>
+      </c>
+      <c r="H35" t="s">
+        <v>112</v>
       </c>
       <c r="J35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K35" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L35">
-        <v>0.26425</v>
+        <v>6390.4</v>
       </c>
       <c r="M35" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="N35" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O35" t="b">
         <v>0</v>
@@ -2285,31 +2282,31 @@
         <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F36">
-        <v>734.521</v>
-      </c>
-      <c r="I36" t="s">
-        <v>122</v>
+        <v>5069.3</v>
+      </c>
+      <c r="H36" t="s">
+        <v>113</v>
       </c>
       <c r="J36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L36">
-        <v>734.521</v>
+        <v>5069.3</v>
       </c>
       <c r="M36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O36" t="b">
         <v>0</v>
@@ -2326,16 +2323,16 @@
         <v>74</v>
       </c>
       <c r="D37" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F37">
-        <v>5</v>
-      </c>
-      <c r="I37" t="s">
-        <v>122</v>
+        <v>380.687</v>
+      </c>
+      <c r="H37" t="s">
+        <v>114</v>
       </c>
       <c r="J37" t="s">
         <v>125</v>
@@ -2344,13 +2341,13 @@
         <v>131</v>
       </c>
       <c r="L37">
-        <v>0.009200000000000002</v>
+        <v>335.00456</v>
       </c>
       <c r="M37" t="s">
         <v>136</v>
       </c>
       <c r="N37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O37" t="b">
         <v>0</v>
@@ -2367,16 +2364,16 @@
         <v>74</v>
       </c>
       <c r="D38" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E38" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F38">
-        <v>626.983579787717</v>
-      </c>
-      <c r="I38" t="s">
-        <v>122</v>
+        <v>336.521</v>
+      </c>
+      <c r="H38" t="s">
+        <v>115</v>
       </c>
       <c r="J38" t="s">
         <v>125</v>
@@ -2385,13 +2382,13 @@
         <v>131</v>
       </c>
       <c r="L38">
-        <v>626.983579787717</v>
+        <v>296.13848</v>
       </c>
       <c r="M38" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="N38" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O38" t="b">
         <v>0</v>
@@ -2408,31 +2405,31 @@
         <v>74</v>
       </c>
       <c r="D39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E39" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F39">
-        <v>5977.02</v>
-      </c>
-      <c r="H39" t="s">
-        <v>119</v>
+        <v>619.366</v>
+      </c>
+      <c r="I39" t="s">
+        <v>122</v>
       </c>
       <c r="J39" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K39" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L39">
-        <v>5977.02</v>
+        <v>545.0420799999999</v>
       </c>
       <c r="M39" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="N39" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O39" t="b">
         <v>0</v>
@@ -2449,31 +2446,31 @@
         <v>74</v>
       </c>
       <c r="D40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F40">
-        <v>2819.39</v>
+        <v>18.9</v>
       </c>
       <c r="H40" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="J40" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K40" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L40">
-        <v>2819.39</v>
+        <v>18.9</v>
       </c>
       <c r="M40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O40" t="b">
         <v>0</v>
@@ -2490,31 +2487,31 @@
         <v>74</v>
       </c>
       <c r="D41" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F41">
-        <v>231239.82</v>
+        <v>26575</v>
       </c>
       <c r="H41" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J41" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K41" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L41">
-        <v>231.23982</v>
+        <v>40.12825</v>
       </c>
       <c r="M41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N41" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O41" t="b">
         <v>0</v>
@@ -2531,31 +2528,31 @@
         <v>74</v>
       </c>
       <c r="D42" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E42" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F42">
-        <v>526.21</v>
-      </c>
-      <c r="H42" t="s">
-        <v>119</v>
+        <v>175</v>
+      </c>
+      <c r="I42" t="s">
+        <v>122</v>
       </c>
       <c r="J42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L42">
-        <v>526.21</v>
+        <v>0.26425</v>
       </c>
       <c r="M42" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="N42" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="O42" t="b">
         <v>0</v>
@@ -2572,31 +2569,31 @@
         <v>74</v>
       </c>
       <c r="D43" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F43">
-        <v>2269.57</v>
+        <v>55</v>
       </c>
       <c r="H43" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="J43" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L43">
-        <v>2269.57</v>
+        <v>55</v>
       </c>
       <c r="M43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O43" t="b">
         <v>0</v>
@@ -2613,31 +2610,31 @@
         <v>74</v>
       </c>
       <c r="D44" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F44">
-        <v>149.1</v>
+        <v>583</v>
       </c>
       <c r="H44" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="J44" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K44" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L44">
-        <v>149.1</v>
+        <v>583</v>
       </c>
       <c r="M44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O44" t="b">
         <v>0</v>
@@ -2654,31 +2651,31 @@
         <v>74</v>
       </c>
       <c r="D45" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="E45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F45">
-        <v>6390.4</v>
+        <v>838.8</v>
       </c>
       <c r="H45" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J45" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L45">
-        <v>6390.4</v>
+        <v>838.8</v>
       </c>
       <c r="M45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" t="b">
         <v>0</v>
@@ -2695,31 +2692,31 @@
         <v>74</v>
       </c>
       <c r="D46" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F46">
-        <v>35.4</v>
+        <v>390.003</v>
       </c>
       <c r="H46" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J46" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K46" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L46">
-        <v>35.4</v>
+        <v>390.003</v>
       </c>
       <c r="M46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O46" t="b">
         <v>0</v>
@@ -2736,31 +2733,31 @@
         <v>74</v>
       </c>
       <c r="D47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F47">
-        <v>60.4</v>
-      </c>
-      <c r="H47" t="s">
-        <v>120</v>
+        <v>734.521</v>
+      </c>
+      <c r="I47" t="s">
+        <v>122</v>
       </c>
       <c r="J47" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K47" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L47">
-        <v>60.4</v>
+        <v>734.521</v>
       </c>
       <c r="M47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O47" t="b">
         <v>0</v>
@@ -2777,31 +2774,31 @@
         <v>74</v>
       </c>
       <c r="D48" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F48">
-        <v>86.59999999999999</v>
+        <v>539</v>
       </c>
       <c r="H48" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="J48" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K48" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L48">
-        <v>86.59999999999999</v>
+        <v>539</v>
       </c>
       <c r="M48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O48" t="b">
         <v>0</v>
@@ -2821,28 +2818,28 @@
         <v>99</v>
       </c>
       <c r="E49" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F49">
-        <v>1.5</v>
+        <v>73.95999999999999</v>
       </c>
       <c r="H49" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J49" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K49" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L49">
-        <v>1.5</v>
+        <v>0.1360864</v>
       </c>
       <c r="M49" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="N49" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="O49" t="b">
         <v>0</v>
@@ -2859,31 +2856,31 @@
         <v>74</v>
       </c>
       <c r="D50" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E50" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F50">
-        <v>399.3</v>
-      </c>
-      <c r="H50" t="s">
-        <v>120</v>
+        <v>5</v>
+      </c>
+      <c r="I50" t="s">
+        <v>122</v>
       </c>
       <c r="J50" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K50" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L50">
-        <v>399.3</v>
+        <v>0.009200000000000002</v>
       </c>
       <c r="M50" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="N50" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="O50" t="b">
         <v>0</v>
@@ -2900,34 +2897,34 @@
         <v>74</v>
       </c>
       <c r="D51" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="E51" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F51">
-        <v>1483.4</v>
+        <v>6543598</v>
       </c>
       <c r="G51" t="s">
         <v>110</v>
       </c>
       <c r="H51" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L51">
-        <v>1483.4</v>
+        <v>2968.123704016</v>
       </c>
       <c r="M51" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="N51" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="O51" t="b">
         <v>0</v>
@@ -2944,31 +2941,34 @@
         <v>74</v>
       </c>
       <c r="D52" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E52" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F52">
-        <v>46.2</v>
+        <v>511210</v>
+      </c>
+      <c r="G52" t="s">
+        <v>110</v>
       </c>
       <c r="H52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L52">
-        <v>46.2</v>
+        <v>231.88076632</v>
       </c>
       <c r="M52" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="N52" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="O52" t="b">
         <v>0</v>
@@ -2985,31 +2985,31 @@
         <v>74</v>
       </c>
       <c r="D53" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F53">
-        <v>4.5</v>
+        <v>241.250566996281</v>
       </c>
       <c r="H53" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J53" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K53" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L53">
-        <v>4.5</v>
+        <v>241.250566996281</v>
       </c>
       <c r="M53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O53" t="b">
         <v>0</v>
@@ -3029,28 +3029,28 @@
         <v>101</v>
       </c>
       <c r="E54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F54">
-        <v>200.2</v>
+        <v>100.705343372947</v>
       </c>
       <c r="H54" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J54" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K54" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L54">
-        <v>200.2</v>
+        <v>100.705343372947</v>
       </c>
       <c r="M54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O54" t="b">
         <v>0</v>
@@ -3067,31 +3067,31 @@
         <v>74</v>
       </c>
       <c r="D55" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="E55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F55">
-        <v>5069.3</v>
-      </c>
-      <c r="H55" t="s">
-        <v>120</v>
+        <v>626.983579787717</v>
+      </c>
+      <c r="I55" t="s">
+        <v>122</v>
       </c>
       <c r="J55" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K55" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L55">
-        <v>5069.3</v>
+        <v>626.983579787717</v>
       </c>
       <c r="M55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N55" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O55" t="b">
         <v>0</v>
@@ -3111,10 +3111,10 @@
         <v>102</v>
       </c>
       <c r="E56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F56">
-        <v>18.9</v>
+        <v>486.3</v>
       </c>
       <c r="H56" t="s">
         <v>120</v>
@@ -3126,13 +3126,13 @@
         <v>134</v>
       </c>
       <c r="L56">
-        <v>18.9</v>
+        <v>486.3</v>
       </c>
       <c r="M56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N56" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O56" t="b">
         <v>0</v>
@@ -3149,16 +3149,19 @@
         <v>74</v>
       </c>
       <c r="D57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F57">
-        <v>539</v>
+        <v>2599.5</v>
+      </c>
+      <c r="G57" t="s">
+        <v>110</v>
       </c>
       <c r="H57" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J57" t="s">
         <v>128</v>
@@ -3167,13 +3170,13 @@
         <v>134</v>
       </c>
       <c r="L57">
-        <v>539</v>
+        <v>2599.5</v>
       </c>
       <c r="M57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N57" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O57" t="b">
         <v>0</v>
@@ -3190,13 +3193,13 @@
         <v>74</v>
       </c>
       <c r="D58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F58">
-        <v>8.1</v>
+        <v>245</v>
       </c>
       <c r="H58" t="s">
         <v>120</v>
@@ -3208,13 +3211,13 @@
         <v>134</v>
       </c>
       <c r="L58">
-        <v>8.1</v>
+        <v>245</v>
       </c>
       <c r="M58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O58" t="b">
         <v>0</v>
@@ -3231,34 +3234,31 @@
         <v>74</v>
       </c>
       <c r="D59" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="E59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F59">
-        <v>2599.5</v>
-      </c>
-      <c r="G59" t="s">
-        <v>110</v>
+        <v>1955.7</v>
       </c>
       <c r="H59" t="s">
         <v>121</v>
       </c>
       <c r="J59" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K59" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L59">
-        <v>2599.5</v>
+        <v>1955.7</v>
       </c>
       <c r="M59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O59" t="b">
         <v>0</v>
@@ -3275,31 +3275,31 @@
         <v>74</v>
       </c>
       <c r="D60" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="E60" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F60">
-        <v>1955.7</v>
+        <v>8.1</v>
       </c>
       <c r="H60" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="J60" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K60" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L60">
-        <v>1955.7</v>
+        <v>8.1</v>
       </c>
       <c r="M60" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O60" t="b">
         <v>0</v>
